--- a/trunk/SourceCode/SaleApp/bin/Debug/Reports/Templates/f931_rpt_bao_cao_doanh_thu_ban_hang_theo_mat_hang.xlsx
+++ b/trunk/SourceCode/SaleApp/bin/Debug/Reports/Templates/f931_rpt_bao_cao_doanh_thu_ban_hang_theo_mat_hang.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,62 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>Số tiền</t>
+  </si>
+  <si>
+    <t>Người lập</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Mã hóa đơn</t>
+  </si>
+  <si>
+    <t>Ngày xuất hóa đơn</t>
+  </si>
+  <si>
+    <t>Nhóm sản phẩm</t>
+  </si>
+  <si>
+    <t>Giá hiện tại</t>
+  </si>
+  <si>
+    <t>Số lượng bán</t>
+  </si>
+  <si>
+    <t>BÁO CÁO DOANH THU BÁN HÀNG THEO TÊN SẢN PHẨM</t>
+  </si>
+  <si>
+    <t>Thông tin sản phẩm "&lt;/SAN_PHAM&gt;  "      Từ ngày: &lt;/TU_NGAY&gt; đến ngày &lt;/DEN_NGAY&gt;</t>
+  </si>
+  <si>
+    <t>CỬA HÀNG BÁN QUẦN ÁO TRẺ EM KINGRIVER</t>
+  </si>
+  <si>
+    <t>Đ/c: 66 Nguyễn Thị Định - Trung Hòa - Cầu Giấy - Hà Nội</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;Hà Nội, ngày&quot;\ dd\ &quot;tháng&quot;\ mm\ &quot;năm &quot;\ yyyy"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,13 +74,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF0000CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -43,17 +136,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +456,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f ca="1">TODAY()</f>
+        <v>40785</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A14:G14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/SourceCode/SaleApp/bin/Debug/Reports/Templates/f931_rpt_bao_cao_doanh_thu_ban_hang_theo_mat_hang.xlsx
+++ b/trunk/SourceCode/SaleApp/bin/Debug/Reports/Templates/f931_rpt_bao_cao_doanh_thu_ban_hang_theo_mat_hang.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Khách hàng</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>Người lập</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Mã hóa đơn</t>
@@ -60,13 +57,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;Hà Nội, ngày&quot;\ dd\ &quot;tháng&quot;\ mm\ &quot;năm &quot;\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +143,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -245,7 +242,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -280,7 +276,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,121 +451,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" ht="31.5">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="8" spans="1:7">
+      <c r="A8" s="7">
         <f ca="1">TODAY()</f>
-        <v>40785</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="2" t="s">
+        <v>40786</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="G9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -578,7 +553,7 @@
   <mergeCells count="3">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -586,24 +561,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
